--- a/public/users.xlsx
+++ b/public/users.xlsx
@@ -85,22 +85,22 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>Super Admin</t>
+          <t>Aditya Stark</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>superadmin@example.com</t>
+          <t>alanna24@example.net</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>superAdmin</t>
+          <t>user</t>
         </is>
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>2022/07/28 10:25:35</t>
+          <t>2022/07/29 10:52:14</t>
         </is>
       </c>
     </row>
@@ -110,22 +110,22 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>Cecilia Smith</t>
+          <t>Lauriane Dickinson</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>batomytof@mailinator.com</t>
+          <t>clementine88@example.net</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>seller</t>
+          <t>user</t>
         </is>
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>2022/07/28 10:26:15</t>
+          <t>2022/07/29 10:52:14</t>
         </is>
       </c>
     </row>
@@ -135,22 +135,147 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
+          <t>Vicky Boyer</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>sydnee88@example.com</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>2022/07/29 10:52:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" spans="1:5" customHeight="0">
+      <c r="A5" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>Angelina Konopelski</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>omcdermott@example.net</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>2022/07/29 10:52:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" spans="1:5" customHeight="0">
+      <c r="A6" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>Lizeth Cartwright</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>kbeer@example.net</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>2022/07/29 10:52:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" spans="1:5" customHeight="0">
+      <c r="A7" s="0">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>Super Admin</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>superadmin@example.com</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>superAdmin</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>2022/07/29 10:52:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" spans="1:5" customHeight="0">
+      <c r="A8" s="0">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>Orson Lara</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>lypo@mailinator.com</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>seller</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>2022/07/29 11:04:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" spans="1:5" customHeight="0">
+      <c r="A9" s="0">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
           <t>Hesam 110</t>
         </is>
       </c>
-      <c r="C4" s="0" t="inlineStr">
+      <c r="C9" s="0" t="inlineStr">
         <is>
           <t>Hesam110@gmail.com</t>
         </is>
       </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t>user</t>
-        </is>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>2022/07/28 10:27:11</t>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>2022/07/29 11:06:25</t>
         </is>
       </c>
     </row>
